--- a/Ligas/Liga_peruana_2025.xlsx
+++ b/Ligas/Liga_peruana_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C0963-2D50-482E-8415-EB93EF90F723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF17D50-51F7-49DA-831C-62E7E7493A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="112">
   <si>
     <t>Fecha</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Posesión Visita (%)</t>
   </si>
   <si>
+    <t>Resultado</t>
+  </si>
+  <si>
     <t>2025-02-07</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Alianza Atletico</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>2025-02-08</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>Sporting Cristal</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Sport Boys</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>2025-02-14</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>2025-02-15</t>
   </si>
   <si>
@@ -344,9 +356,6 @@
   </si>
   <si>
     <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>0%</t>
   </si>
 </sst>
 </file>
@@ -709,15 +718,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="O170" sqref="O170"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,16 +785,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -828,16 +844,19 @@
       <c r="R2">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -884,16 +903,19 @@
       <c r="R3">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -940,16 +962,19 @@
       <c r="R4">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -996,16 +1021,19 @@
       <c r="R5">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1052,16 +1080,19 @@
       <c r="R6">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1108,16 +1139,19 @@
       <c r="R7">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1164,16 +1198,19 @@
       <c r="R8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1220,16 +1257,19 @@
       <c r="R9">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1276,16 +1316,19 @@
       <c r="R10">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1332,16 +1375,19 @@
       <c r="R11">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1388,16 +1434,19 @@
       <c r="R12">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1444,16 +1493,19 @@
       <c r="R13">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1500,16 +1552,19 @@
       <c r="R14">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1556,16 +1611,19 @@
       <c r="R15">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1612,16 +1670,19 @@
       <c r="R16">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1668,16 +1729,19 @@
       <c r="R17">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1724,16 +1788,19 @@
       <c r="R18">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1780,16 +1847,19 @@
       <c r="R19">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1836,16 +1906,19 @@
       <c r="R20">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1892,16 +1965,19 @@
       <c r="R21">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1948,16 +2024,19 @@
       <c r="R22">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2004,16 +2083,19 @@
       <c r="R23">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2060,16 +2142,19 @@
       <c r="R24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2116,16 +2201,19 @@
       <c r="R25">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2172,16 +2260,19 @@
       <c r="R26">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2228,16 +2319,19 @@
       <c r="R27">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2284,16 +2378,19 @@
       <c r="R28">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2340,16 +2437,19 @@
       <c r="R29">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2396,16 +2496,19 @@
       <c r="R30">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2452,16 +2555,19 @@
       <c r="R31">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2508,16 +2614,19 @@
       <c r="R32">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2564,16 +2673,19 @@
       <c r="R33">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2620,16 +2732,19 @@
       <c r="R34">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2676,16 +2791,19 @@
       <c r="R35">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
         <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2732,16 +2850,19 @@
       <c r="R36">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2788,16 +2909,19 @@
       <c r="R37">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2844,16 +2968,19 @@
       <c r="R38">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2900,16 +3027,19 @@
       <c r="R39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2956,16 +3086,19 @@
       <c r="R40">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -3012,16 +3145,19 @@
       <c r="R41">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3068,16 +3204,19 @@
       <c r="R42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3124,16 +3263,19 @@
       <c r="R43">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
         <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>35</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3180,16 +3322,19 @@
       <c r="R44">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3236,16 +3381,19 @@
       <c r="R45">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3292,16 +3440,19 @@
       <c r="R46">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3348,16 +3499,19 @@
       <c r="R47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -3404,16 +3558,19 @@
       <c r="R48">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3460,16 +3617,19 @@
       <c r="R49">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -3516,16 +3676,19 @@
       <c r="R50">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -3572,16 +3735,19 @@
       <c r="R51">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3628,16 +3794,19 @@
       <c r="R52">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3684,16 +3853,19 @@
       <c r="R53">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3740,16 +3912,19 @@
       <c r="R54">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3796,16 +3971,19 @@
       <c r="R55">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3852,16 +4030,19 @@
       <c r="R56">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -3908,16 +4089,19 @@
       <c r="R57">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3964,16 +4148,19 @@
       <c r="R58">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -4020,16 +4207,19 @@
       <c r="R59">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4076,16 +4266,19 @@
       <c r="R60">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -4132,16 +4325,19 @@
       <c r="R61">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4188,16 +4384,19 @@
       <c r="R62">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
         <v>25</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4244,16 +4443,19 @@
       <c r="R63">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4300,16 +4502,19 @@
       <c r="R64">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4356,16 +4561,19 @@
       <c r="R65">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4412,16 +4620,19 @@
       <c r="R66">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
         <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>28</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4468,16 +4679,19 @@
       <c r="R67">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4524,16 +4738,19 @@
       <c r="R68">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4580,16 +4797,19 @@
       <c r="R69">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4636,16 +4856,19 @@
       <c r="R70">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4692,16 +4915,19 @@
       <c r="R71">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4748,16 +4974,19 @@
       <c r="R72">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4804,16 +5033,19 @@
       <c r="R73">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4860,16 +5092,19 @@
       <c r="R74">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4916,16 +5151,19 @@
       <c r="R75">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4972,16 +5210,19 @@
       <c r="R76">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -5028,16 +5269,19 @@
       <c r="R77">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -5084,16 +5328,19 @@
       <c r="R78">
         <v>44</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -5140,16 +5387,19 @@
       <c r="R79">
         <v>47</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -5196,16 +5446,19 @@
       <c r="R80">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5252,16 +5505,19 @@
       <c r="R81">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5308,16 +5564,19 @@
       <c r="R82">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -5364,16 +5623,19 @@
       <c r="R83">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -5420,16 +5682,19 @@
       <c r="R84">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5476,16 +5741,19 @@
       <c r="R85">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -5532,16 +5800,19 @@
       <c r="R86">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -5588,16 +5859,19 @@
       <c r="R87">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -5644,16 +5918,19 @@
       <c r="R88">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5700,16 +5977,19 @@
       <c r="R89">
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -5756,16 +6036,19 @@
       <c r="R90">
         <v>52</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5812,16 +6095,19 @@
       <c r="R91">
         <v>52</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -5868,16 +6154,19 @@
       <c r="R92">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5924,16 +6213,19 @@
       <c r="R93">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -5980,16 +6272,19 @@
       <c r="R94">
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
         <v>31</v>
-      </c>
-      <c r="C95" t="s">
-        <v>29</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -6036,16 +6331,19 @@
       <c r="R95">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6092,16 +6390,19 @@
       <c r="R96">
         <v>70</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -6148,16 +6449,19 @@
       <c r="R97">
         <v>34</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -6204,16 +6508,19 @@
       <c r="R98">
         <v>48</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -6260,16 +6567,19 @@
       <c r="R99">
         <v>66</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -6316,16 +6626,19 @@
       <c r="R100">
         <v>58</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6372,16 +6685,19 @@
       <c r="R101">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -6428,16 +6744,19 @@
       <c r="R102">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -6484,16 +6803,19 @@
       <c r="R103">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -6540,16 +6862,19 @@
       <c r="R104">
         <v>62</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -6596,16 +6921,19 @@
       <c r="R105">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6652,16 +6980,19 @@
       <c r="R106">
         <v>35</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -6708,16 +7039,19 @@
       <c r="R107">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -6728,6 +7062,12 @@
       <c r="F108">
         <v>1340396</v>
       </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
+      </c>
       <c r="I108">
         <v>1</v>
       </c>
@@ -6752,16 +7092,25 @@
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q108">
+        <v>46</v>
+      </c>
+      <c r="R108">
+        <v>54</v>
+      </c>
+      <c r="S108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -6808,16 +7157,19 @@
       <c r="R109">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -6864,16 +7216,19 @@
       <c r="R110">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6920,16 +7275,19 @@
       <c r="R111">
         <v>42</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -6976,16 +7334,19 @@
       <c r="R112">
         <v>61</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -7032,16 +7393,19 @@
       <c r="R113">
         <v>48</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -7088,16 +7452,19 @@
       <c r="R114">
         <v>63</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -7144,16 +7511,19 @@
       <c r="R115">
         <v>49</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -7200,16 +7570,19 @@
       <c r="R116">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -7256,16 +7629,19 @@
       <c r="R117">
         <v>62</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -7312,16 +7688,19 @@
       <c r="R118">
         <v>48</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -7368,16 +7747,19 @@
       <c r="R119">
         <v>62</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -7424,16 +7806,19 @@
       <c r="R120">
         <v>39</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D121">
         <v>6</v>
@@ -7480,16 +7865,19 @@
       <c r="R121">
         <v>42</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -7536,16 +7924,19 @@
       <c r="R122">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D123">
         <v>4</v>
@@ -7592,16 +7983,19 @@
       <c r="R123">
         <v>71</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -7648,16 +8042,19 @@
       <c r="R124">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -7704,16 +8101,19 @@
       <c r="R125">
         <v>60</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -7760,16 +8160,19 @@
       <c r="R126">
         <v>52</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -7816,16 +8219,19 @@
       <c r="R127">
         <v>48</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -7872,16 +8278,19 @@
       <c r="R128">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -7928,16 +8337,19 @@
       <c r="R129">
         <v>42</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -7984,16 +8396,19 @@
       <c r="R130">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -8040,16 +8455,19 @@
       <c r="R131">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -8096,16 +8514,19 @@
       <c r="R132">
         <v>47</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -8152,16 +8573,19 @@
       <c r="R133">
         <v>46</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -8208,16 +8632,19 @@
       <c r="R134">
         <v>63</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -8264,16 +8691,19 @@
       <c r="R135">
         <v>48</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -8320,16 +8750,19 @@
       <c r="R136">
         <v>26</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -8376,16 +8809,19 @@
       <c r="R137">
         <v>44</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S137" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -8432,16 +8868,19 @@
       <c r="R138">
         <v>54</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -8488,16 +8927,19 @@
       <c r="R139">
         <v>66</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -8544,16 +8986,19 @@
       <c r="R140">
         <v>60</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -8600,16 +9045,19 @@
       <c r="R141">
         <v>41</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -8656,16 +9104,19 @@
       <c r="R142">
         <v>55</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -8712,16 +9163,19 @@
       <c r="R143">
         <v>32</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -8768,16 +9222,19 @@
       <c r="R144">
         <v>36</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -8824,16 +9281,19 @@
       <c r="R145">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -8880,16 +9340,19 @@
       <c r="R146">
         <v>56</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -8936,16 +9399,19 @@
       <c r="R147">
         <v>50</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -8992,16 +9458,19 @@
       <c r="R148">
         <v>30</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -9048,16 +9517,19 @@
       <c r="R149">
         <v>35</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -9104,16 +9576,19 @@
       <c r="R150">
         <v>38</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -9160,16 +9635,19 @@
       <c r="R151">
         <v>39</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -9216,16 +9694,19 @@
       <c r="R152">
         <v>50</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D153">
         <v>4</v>
@@ -9272,16 +9753,19 @@
       <c r="R153">
         <v>43</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -9328,16 +9812,19 @@
       <c r="R154">
         <v>51</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -9384,16 +9871,19 @@
       <c r="R155">
         <v>52</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9440,16 +9930,19 @@
       <c r="R156">
         <v>67</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S156" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B157" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -9496,16 +9989,19 @@
       <c r="R157">
         <v>37</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S157" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -9552,16 +10048,19 @@
       <c r="R158">
         <v>43</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -9608,16 +10107,19 @@
       <c r="R159">
         <v>60</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D160">
         <v>5</v>
@@ -9664,16 +10166,19 @@
       <c r="R160">
         <v>38</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -9720,16 +10225,19 @@
       <c r="R161">
         <v>58</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -9741,16 +10249,16 @@
         <v>1340446</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -9770,22 +10278,25 @@
       <c r="P162">
         <v>0</v>
       </c>
-      <c r="Q162" t="s">
-        <v>108</v>
-      </c>
-      <c r="R162" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q162">
+        <v>50</v>
+      </c>
+      <c r="R162">
+        <v>50</v>
+      </c>
+      <c r="S162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9831,6 +10342,9 @@
       </c>
       <c r="R163">
         <v>55</v>
+      </c>
+      <c r="S163" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Liga_peruana_2025.xlsx
+++ b/Ligas/Liga_peruana_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF17D50-51F7-49DA-831C-62E7E7493A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21CD64B-D100-433D-82EF-BC5B8EDCE484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,14 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">

--- a/Ligas/Liga_peruana_2025.xlsx
+++ b/Ligas/Liga_peruana_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S172"/>
+  <dimension ref="A1:S181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12023,6 +12023,645 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Alianza Atletico</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1391870</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5</v>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cultural Santa Rosa</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1405332</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>3</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Comerciantes Unidos</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1391871</v>
+      </c>
+      <c r="G175" t="n">
+        <v>6</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>3</v>
+      </c>
+      <c r="P175" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>FBC Melgar</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1391872</v>
+      </c>
+      <c r="G176" t="n">
+        <v>8</v>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1</v>
+      </c>
+      <c r="P176" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1391873</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="n">
+        <v>11</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Cusco</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1391874</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>2</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Alianza Universidad</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1391875</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>3</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ayacucho FC</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Atletico Grau</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1391876</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1</v>
+      </c>
+      <c r="P180" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Juan Pablo II College</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1391877</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>3</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_peruana_2025.xlsx
+++ b/Ligas/Liga_peruana_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3900D41-91F6-48C3-927F-F71D913CE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CADFB17-7178-4BF7-A503-3919FC7BFCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,6 +761,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/Ligas/Liga_peruana_2025.xlsx
+++ b/Ligas/Liga_peruana_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U207"/>
+  <dimension ref="A1:Y216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,26 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +628,10 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +701,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +774,10 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +847,10 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +920,10 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +993,10 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1066,10 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1139,10 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1212,10 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1285,10 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1358,10 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1431,10 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1504,10 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1577,10 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1650,10 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1723,10 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1796,10 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1869,10 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1942,10 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +2015,10 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2088,10 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2161,10 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2234,10 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2307,10 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2380,10 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2453,10 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2526,10 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2599,10 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2672,10 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2745,10 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2818,10 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2891,10 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2964,10 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +3037,10 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3110,10 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3183,10 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3256,10 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3329,10 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3402,10 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3475,10 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3548,10 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3621,10 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3694,10 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3767,10 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3840,10 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3913,10 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3986,10 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +4059,10 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4132,10 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4205,10 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4278,10 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4351,10 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4424,10 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4497,10 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4570,10 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4643,10 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4716,10 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4789,10 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4862,10 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4935,10 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +5008,10 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +5081,10 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5154,10 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5227,10 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5300,10 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5373,10 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5446,10 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5519,10 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5592,10 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5665,10 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5738,10 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5811,10 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5884,10 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5957,10 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +6030,10 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +6103,10 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6176,10 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6249,10 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6322,10 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6395,10 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6468,10 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6541,10 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6614,10 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6687,10 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6760,10 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6833,10 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6906,10 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6979,10 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +7052,10 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +7125,10 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7198,10 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7271,10 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7344,10 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7417,10 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7490,10 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7563,10 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7636,10 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7709,10 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7782,10 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +7855,10 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +7928,10 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +8001,10 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +8074,10 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +8147,10 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8220,10 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8293,10 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8366,10 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8439,10 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8512,10 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8585,10 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8658,10 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8731,10 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +8804,10 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +8877,10 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +8950,10 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +9023,10 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +9096,10 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8681,6 +9169,10 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +9242,10 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8819,6 +9315,10 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8888,6 +9388,10 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8957,6 +9461,10 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9534,10 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9095,6 +9607,10 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9164,6 +9680,10 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9233,6 +9753,10 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9302,6 +9826,10 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +9899,10 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9440,6 +9972,10 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9509,6 +10045,10 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9578,6 +10118,10 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9647,6 +10191,10 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9716,6 +10264,10 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9785,6 +10337,10 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9854,6 +10410,10 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10483,10 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9992,6 +10556,10 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10061,6 +10629,10 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10130,6 +10702,10 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10199,6 +10775,10 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10268,6 +10848,10 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10337,6 +10921,10 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10406,6 +10994,10 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10475,6 +11067,10 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10544,6 +11140,10 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10613,6 +11213,10 @@
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10682,6 +11286,10 @@
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10751,6 +11359,10 @@
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10820,6 +11432,10 @@
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10889,6 +11505,10 @@
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10958,6 +11578,10 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11027,6 +11651,10 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11096,6 +11724,10 @@
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11141,13 +11773,13 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -11165,6 +11797,10 @@
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11210,13 +11846,13 @@
         <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
       </c>
       <c r="O156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P156" t="n">
         <v>1</v>
@@ -11234,6 +11870,10 @@
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11303,6 +11943,10 @@
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11372,6 +12016,10 @@
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11417,13 +12065,13 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
       </c>
       <c r="O159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -11441,6 +12089,10 @@
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11486,16 +12138,16 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q160" t="n">
         <v>62</v>
@@ -11510,6 +12162,10 @@
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11555,13 +12211,13 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
       </c>
       <c r="O161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P161" t="n">
         <v>2</v>
@@ -11579,6 +12235,10 @@
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11605,18 +12265,10 @@
       <c r="F162" t="n">
         <v>1340446</v>
       </c>
-      <c r="G162" t="n">
-        <v>2</v>
-      </c>
-      <c r="H162" t="n">
-        <v>4</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2</v>
-      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
         <v>0</v>
       </c>
@@ -11635,12 +12287,8 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
-      <c r="Q162" t="n">
-        <v>50</v>
-      </c>
-      <c r="R162" t="n">
-        <v>50</v>
-      </c>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr">
         <is>
           <t>L</t>
@@ -11648,6 +12296,10 @@
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11717,6 +12369,10 @@
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11786,6 +12442,10 @@
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11855,6 +12515,10 @@
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11924,6 +12588,10 @@
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11993,6 +12661,10 @@
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12062,6 +12734,10 @@
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12107,16 +12783,16 @@
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q169" t="n">
         <v>65</v>
@@ -12131,6 +12807,10 @@
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12200,6 +12880,10 @@
       </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12269,6 +12953,10 @@
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12314,13 +13002,13 @@
         <v>1</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
@@ -12338,6 +13026,10 @@
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12370,12 +13062,8 @@
       <c r="H173" t="n">
         <v>4</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
         <v>0</v>
       </c>
@@ -12407,6 +13095,10 @@
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12452,13 +13144,13 @@
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
       </c>
       <c r="O174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P174" t="n">
         <v>0</v>
@@ -12476,6 +13168,10 @@
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12521,16 +13217,16 @@
         <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q175" t="n">
         <v>59</v>
@@ -12545,6 +13241,10 @@
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12593,13 +13293,13 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176" t="n">
         <v>1</v>
       </c>
       <c r="P176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q176" t="n">
         <v>45</v>
@@ -12614,6 +13314,10 @@
       </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12683,6 +13387,10 @@
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12752,6 +13460,10 @@
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12797,13 +13509,13 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -12821,6 +13533,10 @@
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12890,6 +13606,10 @@
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12935,13 +13655,13 @@
         <v>1</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
       </c>
       <c r="O181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P181" t="n">
         <v>0</v>
@@ -12959,6 +13679,10 @@
       </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13004,13 +13728,13 @@
         <v>1</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
       </c>
       <c r="O182" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P182" t="n">
         <v>1</v>
@@ -13028,6 +13752,10 @@
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13097,6 +13825,10 @@
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13142,13 +13874,13 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
       </c>
       <c r="O184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P184" t="n">
         <v>2</v>
@@ -13166,6 +13898,10 @@
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13214,13 +13950,13 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O185" t="n">
         <v>0</v>
       </c>
       <c r="P185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q185" t="n">
         <v>44</v>
@@ -13235,6 +13971,10 @@
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13304,6 +14044,10 @@
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13352,13 +14096,13 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O187" t="n">
         <v>0</v>
       </c>
       <c r="P187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q187" t="n">
         <v>47</v>
@@ -13373,6 +14117,10 @@
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13442,6 +14190,10 @@
       </c>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13511,6 +14263,10 @@
       </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13580,6 +14336,10 @@
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13625,13 +14385,13 @@
         <v>1</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
       </c>
       <c r="O191" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P191" t="n">
         <v>0</v>
@@ -13649,6 +14409,10 @@
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13697,13 +14461,13 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q192" t="n">
         <v>57</v>
@@ -13718,6 +14482,10 @@
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13763,13 +14531,13 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
       </c>
       <c r="O193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P193" t="n">
         <v>0</v>
@@ -13787,6 +14555,10 @@
       </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13832,16 +14604,16 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q194" t="n">
         <v>36</v>
@@ -13856,6 +14628,10 @@
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13901,13 +14677,13 @@
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N195" t="n">
         <v>0</v>
       </c>
       <c r="O195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P195" t="n">
         <v>1</v>
@@ -13925,6 +14701,10 @@
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13970,16 +14750,16 @@
         <v>2</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q196" t="n">
         <v>63</v>
@@ -13994,6 +14774,10 @@
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14063,6 +14847,10 @@
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14108,16 +14896,16 @@
         <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q198" t="n">
         <v>34</v>
@@ -14132,6 +14920,10 @@
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14177,16 +14969,16 @@
         <v>1</v>
       </c>
       <c r="M199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q199" t="n">
         <v>61</v>
@@ -14201,6 +14993,10 @@
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14246,16 +15042,16 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q200" t="n">
         <v>40</v>
@@ -14270,6 +15066,10 @@
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14315,13 +15115,13 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N201" t="n">
         <v>0</v>
       </c>
       <c r="O201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P201" t="n">
         <v>0</v>
@@ -14339,6 +15139,10 @@
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14384,13 +15188,13 @@
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202" t="n">
         <v>0</v>
       </c>
       <c r="O202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P202" t="n">
         <v>0</v>
@@ -14408,6 +15212,10 @@
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14440,12 +15248,8 @@
       <c r="H203" t="n">
         <v>4</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
         <v>1</v>
       </c>
@@ -14456,13 +15260,13 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203" t="n">
         <v>0</v>
       </c>
       <c r="P203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q203" t="n">
         <v>66</v>
@@ -14477,6 +15281,10 @@
       </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14522,13 +15330,13 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" t="n">
         <v>0</v>
       </c>
       <c r="O204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P204" t="n">
         <v>1</v>
@@ -14546,6 +15354,10 @@
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14615,6 +15427,10 @@
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14684,6 +15500,10 @@
       </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14729,13 +15549,13 @@
         <v>1</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N207" t="n">
         <v>0</v>
       </c>
       <c r="O207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P207" t="n">
         <v>0</v>
@@ -14753,6 +15573,663 @@
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Comerciantes Unidos</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1405749</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1</v>
+      </c>
+      <c r="P208" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>36</v>
+      </c>
+      <c r="R208" t="n">
+        <v>64</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Ayacucho FC</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1405750</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>38</v>
+      </c>
+      <c r="R209" t="n">
+        <v>62</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1429385</v>
+      </c>
+      <c r="G210" t="n">
+        <v>5</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>3</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>53</v>
+      </c>
+      <c r="R210" t="n">
+        <v>47</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1405751</v>
+      </c>
+      <c r="G211" t="n">
+        <v>10</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>56</v>
+      </c>
+      <c r="R211" t="n">
+        <v>44</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>FBC Melgar</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1405752</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>4</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>63</v>
+      </c>
+      <c r="R212" t="n">
+        <v>37</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Cultural Santa Rosa</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Atletico Grau</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1410135</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="n">
+        <v>3</v>
+      </c>
+      <c r="P213" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>43</v>
+      </c>
+      <c r="R213" t="n">
+        <v>57</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Juan Pablo II College</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1410136</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>51</v>
+      </c>
+      <c r="R214" t="n">
+        <v>49</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Alianza Atletico</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1405753</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>48</v>
+      </c>
+      <c r="R215" t="n">
+        <v>52</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Alianza Universidad</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1405754</v>
+      </c>
+      <c r="G216" t="n">
+        <v>6</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3</v>
+      </c>
+      <c r="J216" t="n">
+        <v>4</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1</v>
+      </c>
+      <c r="P216" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>48</v>
+      </c>
+      <c r="R216" t="n">
+        <v>52</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
